--- a/VLDB2022.xlsx
+++ b/VLDB2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\hero\VLDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\hero\VLDB2022-Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC63DD1-79BB-4193-940D-36641DA27CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551E86E-6014-4CD5-A304-E38A32774C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>TITLE</t>
   </si>
@@ -192,8 +192,42 @@
     <t>Network</t>
   </si>
   <si>
-    <t>1. OLTP(ByteNDB）+ OLAP(Flink），OLTP Row-data + OLAP Delta Store（row，IN-MEM）+ Base Store（Col，Persistent）
-2. OLTP log repica to OLAP，two operation（Insert、Delete），Delete-list and delete hashmap and bitmap（RocksDB），soft-delete optimization：put delete-list and wait for groom process to compaction or GC</t>
+    <t>1. DuckDB is a embeddable database(colum-formata data, vector executor) which are linked to the program as libarys and run in their process.
+2. DuckDB-Wasm is applied on Web-Assembly, used in the web scene for analytics.
+3. DuckDB is written in C++, DuckDB-wasm use Arrow to exchange data with Web-Assembly which is written in Java
+4. Tranditional web query will put the  entire computation in server, DuckDB-wasm can put the computation in client(web browse), and users can register JavaScript functions in DuckDB-Wasm and refer them with in a SQL Query
+5. DuckDB-Wasm support all the 22 TPC-H queries, the performance is much better the SQL.js(SQLite row-format data) and Arquero and Lovefield</t>
+  </si>
+  <si>
+    <t>Velox_Meta’s Unified Execution Engine</t>
+  </si>
+  <si>
+    <t>Execute Engine</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>1. SQLite was initially released in Aug.2020 as a small library. SQLite is embedded in other process, not started alone as a process. SQLite popular over the world, can be found in every IOS and Android device. It has 3 core advantages: 
+   + **Cross-Platform.** SQLite can be run on any platform with an 8-bit byte, 32-bit and 64-bit integers, and a C-compiler. 
+   + **Compact and self-contained.** A single C file, has 150 thousand lines source code and only 750KB after compiled. Same as DuckDB, no external dependencies, don't need install or config.
+   + **Reliable.** Over 600 lines of test code for every line of code. Tests over 100% of branches
+2. Designers. 
+   + SQL Compiler. SQLite's tokenizer, parser and code generator act like a compiler, translating SQL into bytecode(has several virtual functions)
+   + VDBE(Virtual database engine). heart of the SQLite. Execute the instructions in bytecode program one by one
+   + Backend-Modules. B-tree Module. Page cache.
+3.  Optimzation
+   + LIP(Lookahead Information Passing). Using bloomfiter early in the join pipeline reduces the number of tuples flow through the join pipeline. 4.2X faster in SSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Seperate Engine: OLTP(ByteNDB, like Aurora）+ OLAP(Flink), Two OLTP Row-data + OLAP Delta Store（row，IN-MEM）+ Base Store（Col，Persistent）
+2. OLTP log repica to OLAP, two operation（Insert、Delete), Delete-list and delete hashmap and bitmap（RocksDB）,soft-delete optimization：put delete-list and wait for groom process to compaction or GC
+Adavantages:
++ High data freshness(less than one sec)
++ Strong data consistency
+  using global timestamps(global snapshot) to provide consistency between OLTP and OLAP nodes.
+​	   Doesn't support mixed DMLs and OLAP read-only queries due to ByteHTAP does not support distributed transactions across OLTP and OLAP engines</t>
   </si>
 </sst>
 </file>
@@ -258,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,7 +315,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C6:I29"/>
+  <dimension ref="C6:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,14 +657,16 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="3:9" ht="51" customHeight="1">
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
@@ -635,18 +674,20 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:9" ht="42" customHeight="1">
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
@@ -654,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -696,15 +737,15 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="3:9" ht="45">
+    <row r="12" spans="3:9" ht="36.75" customHeight="1">
       <c r="C12" s="7">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>55</v>
+      <c r="E12" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>40</v>
@@ -713,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -760,17 +801,17 @@
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -779,35 +820,35 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I17" s="1"/>
@@ -817,11 +858,11 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
@@ -836,14 +877,14 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>34</v>
@@ -855,11 +896,11 @@
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>17</v>
@@ -874,11 +915,11 @@
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>17</v>
@@ -893,11 +934,11 @@
         <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -911,12 +952,12 @@
       <c r="C23" s="3">
         <v>17</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="5"/>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>17</v>
@@ -924,17 +965,18 @@
       <c r="H23" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>27</v>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>17</v>
@@ -948,11 +990,11 @@
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>17</v>
@@ -965,17 +1007,17 @@
       <c r="C26" s="3">
         <v>20</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="D26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -984,13 +1026,11 @@
         <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>17</v>
@@ -1004,13 +1044,13 @@
         <v>22</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>17</v>
@@ -1019,10 +1059,35 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="21.75">
-      <c r="D29" s="9"/>
+    <row r="29" spans="3:9">
+      <c r="C29" s="7">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="21.75">
+      <c r="D30" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{F7263661-498A-4684-8ACA-996B855020AF}">
+      <formula1>"Done,Todo,Doing"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
